--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_średnie.xlsx.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_średnie.xlsx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,131 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>10-15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.837210330061661</v>
+        <v>3.411006674596242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.376418529067721</v>
+        <v>3.003127636795952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-20</t>
+          <t>10-15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.067757138907909</v>
+        <v>3.925750268684639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-25</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.691811049136755</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6681524522381552</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.082097596419709</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.784837696289713</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.206382310409479</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>15-20</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.091420722617102</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20-25</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.884088413705372</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6420560251802183</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>30-35</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.4375410224348011</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.895566047535461</v>
+        <v>3.350359798132719</v>
       </c>
     </row>
   </sheetData>

--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_średnie.xlsx.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_średnie.xlsx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Trening</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Acceleration_SMA</t>
         </is>
       </c>
@@ -451,8 +456,13 @@
           <t>10-15</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3.411006674596242</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3.714678005377452</v>
       </c>
     </row>
     <row r="3">
@@ -461,8 +471,13 @@
           <t>5-10</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3.003127636795952</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.347213657555126</v>
       </c>
     </row>
     <row r="4">
@@ -471,18 +486,178 @@
           <t>10-15</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3.925750268684639</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.934777881311519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.27617809676885</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3.350359798132719</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.862376963063365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.847562606920276</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3.841688387559884</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3.389416957949544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3.266047984689147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.928736258011598</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.131088749854399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3.073714245217187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.606974919637044</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2.781481812965303</v>
       </c>
     </row>
   </sheetData>
